--- a/biology/Zoologie/Hersiliidae/Hersiliidae.xlsx
+++ b/biology/Zoologie/Hersiliidae/Hersiliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hersiliidae ou Araignées à queues sont une famille d'araignées aranéomorphes[1].
-Elle a été décrite par Tamerlan Thorell en 1869. Elle rassemble 16 genres d'araignées tropicales et subtropicales[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hersiliidae ou Araignées à queues sont une famille d'araignées aranéomorphes.
+Elle a été décrite par Tamerlan Thorell en 1869. Elle rassemble 16 genres d'araignées tropicales et subtropicales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie, en Afrique, en Océanie, en Amérique depuis le Sud des États-Unis et en Europe du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie, en Afrique, en Océanie, en Amérique depuis le Sud des États-Unis et en Europe du Sud.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont caractérisées par deux filières proéminentes presque aussi longue que l'abdomen même et atteignent entre 10 et 18 mm de long.
 Plutôt que d'utiliser une toile qui capture directement la proie, elles posent une légère couche de fils sur une zone d'écorce d'arbre et attendent qu'un insecte s'y aventure. Lorsque cela se produit, elles encerclent leurs filières autour de leur proie tout en lui jetant de la soie. Lorsque l'insecte est immobilisé, elles peuvent le piquer à travers le linceul.
@@ -575,9 +591,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 183 espèces dans seize genres actuels[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 183 espèces dans seize genres actuels.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 19/08/2021)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 19/08/2021) :
 Bastanius Mirshamsi, Zamani &amp; Marusik, 2016
 Deltshevia Marusik &amp; Fet, 2009
 Duninia Marusik &amp; Fet, 2009
@@ -656,7 +678,7 @@
 Tyrotama Foord &amp; Dippenaar-Schoeman, 2005
 Yabisi Rheims &amp; Brescovit, 2004
 Ypypuera Rheims &amp; Brescovit, 2004
-Selon World Spider Catalog (version 20.5, 2020)[3] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Burmesiola Wunderlich, 2011
 † Fictotama Petrunkevitch, 1963
 † Gerdia Menge, 1869
@@ -692,7 +714,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Thorell, 1869 : « On European spiders. Part I. Review of the European genera of spiders, preceded by some observations on zoological nomenclature. » Nova Acta Regiae Societatis Scientiarum Upsaliensis, sér. 3, vol. 7, p. 1-108 (texte intégral).</t>
         </is>
